--- a/Leçon chimie/LC 23/LC23-Winkler.xlsx
+++ b/Leçon chimie/LC 23/LC23-Winkler.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15040" tabRatio="500"/>
+    <workbookView xWindow="1700" yWindow="0" windowWidth="25600" windowHeight="15060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -258,6 +258,87 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7962900" y="927100"/>
+          <a:ext cx="5435600" cy="939800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Image 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9283700" y="266700"/>
+          <a:ext cx="1816100" cy="660400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -585,7 +666,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:B26"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -862,6 +943,7 @@
     <mergeCell ref="A18:C18"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Leçon chimie/LC 23/LC23-Winkler.xlsx
+++ b/Leçon chimie/LC 23/LC23-Winkler.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1700" yWindow="0" windowWidth="25600" windowHeight="15060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -34,9 +34,6 @@
   </si>
   <si>
     <t>Masse molaires(g/mol)</t>
-  </si>
-  <si>
-    <t>Méthode deWinkler</t>
   </si>
   <si>
     <t>Méthode/Matériel utilisée</t>
@@ -140,6 +137,9 @@
   </si>
   <si>
     <t>Solubilité en O2 (g/L)</t>
+  </si>
+  <si>
+    <t>Méthode de Winkler (résultats issus du livre de F. Porteu de Buchère)</t>
   </si>
 </sst>
 </file>
@@ -666,7 +666,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -678,7 +678,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="12" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -687,7 +687,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>0</v>
@@ -701,7 +701,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
@@ -712,7 +712,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="5">
         <v>0.25</v>
@@ -726,7 +726,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="5">
         <v>115</v>
@@ -741,7 +741,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="5">
         <f>C6*10^-3</f>
@@ -760,7 +760,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
@@ -768,10 +768,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>10</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>11</v>
       </c>
       <c r="C10" s="5">
         <f>0.01</f>
@@ -781,10 +781,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="C11" s="6">
         <v>1.2999999999999999E-2</v>
@@ -797,7 +797,7 @@
     <row r="12" spans="1:5">
       <c r="A12" s="5"/>
       <c r="B12" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="6">
         <f>C11*C10/2</f>
@@ -811,7 +811,7 @@
     <row r="13" spans="1:5">
       <c r="A13" s="5"/>
       <c r="B13" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" s="6">
         <f>C11*C10/4</f>
@@ -825,7 +825,7 @@
     <row r="14" spans="1:5">
       <c r="A14" s="5"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14" s="6">
         <f>C13/C7</f>
@@ -839,7 +839,7 @@
     <row r="15" spans="1:5">
       <c r="A15" s="7"/>
       <c r="B15" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" s="9">
         <f>C14*B26</f>
@@ -855,7 +855,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
@@ -863,7 +863,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19" s="10">
         <v>0.05</v>
@@ -872,7 +872,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20" s="5">
         <v>0.05</v>
@@ -881,7 +881,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21" s="5">
         <v>0.05</v>
@@ -890,7 +890,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22" s="5">
         <v>0.1</v>
@@ -900,7 +900,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" s="5">
         <f>SQRT(2*(B19)^2+(B20)^2+(B21)^2+(B22)^2)</f>
@@ -924,7 +924,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="10">
         <v>32</v>
